--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_9.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-77748.52026110837</v>
+        <v>-48343.97640186438</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>27330079.88912949</v>
+        <v>26160808.72769628</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>2562408.204973267</v>
+        <v>3078152.982664103</v>
       </c>
     </row>
     <row r="11">
@@ -23270,49 +23272,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H11" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I11" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J11" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K11" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L11" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M11" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N11" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P11" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q11" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R11" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S11" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T11" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23349,22 +23351,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H12" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I12" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J12" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K12" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L12" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>0</v>
@@ -23373,25 +23375,25 @@
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q12" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R12" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S12" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T12" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23428,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H13" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I13" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J13" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K13" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L13" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M13" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N13" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O13" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P13" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q13" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R13" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S13" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T13" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23507,49 +23509,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H14" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I14" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J14" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K14" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L14" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M14" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N14" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P14" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q14" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R14" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S14" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T14" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23586,22 +23588,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H15" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I15" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J15" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K15" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L15" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -23610,25 +23612,25 @@
         <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q15" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R15" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S15" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T15" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23665,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H16" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I16" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J16" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K16" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L16" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M16" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N16" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O16" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P16" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q16" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R16" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S16" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T16" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23744,49 +23746,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H17" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I17" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J17" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K17" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L17" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M17" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N17" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P17" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q17" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R17" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S17" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T17" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23823,22 +23825,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H18" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I18" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J18" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K18" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L18" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>0</v>
@@ -23847,25 +23849,25 @@
         <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q18" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R18" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S18" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T18" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23902,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H19" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I19" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J19" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K19" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L19" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M19" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N19" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O19" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P19" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q19" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R19" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S19" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T19" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23981,49 +23983,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H20" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I20" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J20" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K20" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L20" t="n">
-        <v>85.78632439852493</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M20" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N20" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>65.20892354519972</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P20" t="n">
-        <v>98.17069248095632</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q20" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R20" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S20" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T20" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24060,22 +24062,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H21" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I21" t="n">
-        <v>97.85459557037962</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J21" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K21" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L21" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M21" t="n">
         <v>0</v>
@@ -24084,25 +24086,25 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q21" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R21" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S21" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T21" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24139,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H22" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I22" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J22" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K22" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L22" t="n">
-        <v>79.25802099849831</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M22" t="n">
-        <v>79.55121249250526</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N22" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O22" t="n">
-        <v>87.8197306940173</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P22" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q22" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R22" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S22" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T22" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24218,49 +24220,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H23" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I23" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J23" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K23" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L23" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M23" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N23" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P23" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q23" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R23" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S23" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T23" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24297,22 +24299,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H24" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I24" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J24" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K24" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L24" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M24" t="n">
         <v>0</v>
@@ -24321,25 +24323,25 @@
         <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q24" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R24" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S24" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T24" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24376,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H25" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I25" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J25" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K25" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L25" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M25" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N25" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O25" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P25" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q25" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R25" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S25" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T25" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24455,49 +24457,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H26" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I26" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J26" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K26" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L26" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M26" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N26" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P26" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q26" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R26" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S26" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T26" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24534,22 +24536,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H27" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I27" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J27" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K27" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L27" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -24558,25 +24560,25 @@
         <v>0</v>
       </c>
       <c r="O27" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q27" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R27" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S27" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T27" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24613,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H28" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I28" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J28" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K28" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L28" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M28" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N28" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O28" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P28" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q28" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R28" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S28" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T28" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24692,49 +24694,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H29" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I29" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J29" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K29" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L29" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M29" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N29" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P29" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q29" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R29" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S29" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T29" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24771,22 +24773,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H30" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I30" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J30" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K30" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L30" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>0</v>
@@ -24795,25 +24797,25 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q30" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R30" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S30" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T30" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24850,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H31" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I31" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J31" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K31" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L31" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M31" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N31" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O31" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P31" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q31" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R31" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S31" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T31" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24929,49 +24931,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H32" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I32" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J32" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K32" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L32" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M32" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N32" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P32" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q32" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R32" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S32" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T32" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25008,22 +25010,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H33" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I33" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J33" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K33" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L33" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>0</v>
@@ -25032,25 +25034,25 @@
         <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q33" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R33" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S33" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T33" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25087,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H34" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I34" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J34" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K34" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L34" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M34" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N34" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O34" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P34" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q34" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R34" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S34" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T34" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25166,49 +25168,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H35" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I35" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J35" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K35" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L35" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M35" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N35" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P35" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q35" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R35" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S35" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T35" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25245,22 +25247,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H36" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I36" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J36" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K36" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L36" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
         <v>0</v>
@@ -25269,25 +25271,25 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q36" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R36" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S36" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T36" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25324,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H37" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I37" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J37" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K37" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L37" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M37" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N37" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O37" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P37" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q37" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R37" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S37" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T37" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25403,49 +25405,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H38" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I38" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J38" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K38" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L38" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M38" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N38" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P38" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q38" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R38" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S38" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T38" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25482,22 +25484,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H39" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I39" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J39" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K39" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L39" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M39" t="n">
         <v>0</v>
@@ -25506,25 +25508,25 @@
         <v>0</v>
       </c>
       <c r="O39" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q39" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R39" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S39" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T39" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25561,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H40" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I40" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J40" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K40" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L40" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M40" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N40" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O40" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P40" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q40" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R40" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S40" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T40" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25640,49 +25642,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H41" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I41" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J41" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K41" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698734</v>
       </c>
       <c r="L41" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M41" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N41" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433224</v>
       </c>
       <c r="P41" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839042</v>
       </c>
       <c r="Q41" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R41" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S41" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T41" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25719,22 +25721,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H42" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I42" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J42" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K42" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L42" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M42" t="n">
         <v>0</v>
@@ -25743,25 +25745,25 @@
         <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q42" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R42" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S42" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T42" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25798,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H43" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I43" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J43" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K43" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L43" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677093</v>
       </c>
       <c r="M43" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N43" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O43" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P43" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q43" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R43" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S43" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T43" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25877,49 +25879,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.9658102901039</v>
+        <v>417.6763216963499</v>
       </c>
       <c r="H44" t="n">
-        <v>338.0873143883533</v>
+        <v>335.1225893275702</v>
       </c>
       <c r="I44" t="n">
-        <v>207.3780072822006</v>
+        <v>196.2174982714999</v>
       </c>
       <c r="J44" t="n">
-        <v>112.3155342172161</v>
+        <v>87.74555168308848</v>
       </c>
       <c r="K44" t="n">
-        <v>105.8056161847214</v>
+        <v>68.98158147698732</v>
       </c>
       <c r="L44" t="n">
-        <v>85.7863243985249</v>
+        <v>40.1028531396922</v>
       </c>
       <c r="M44" t="n">
-        <v>56.42683163149823</v>
+        <v>5.595167593493045</v>
       </c>
       <c r="N44" t="n">
-        <v>51.65417350500871</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>65.2089235451997</v>
+        <v>16.43335224433218</v>
       </c>
       <c r="P44" t="n">
-        <v>98.17069248095629</v>
+        <v>56.54187083839039</v>
       </c>
       <c r="Q44" t="n">
-        <v>133.0864964302902</v>
+        <v>101.8249850515391</v>
       </c>
       <c r="R44" t="n">
-        <v>182.6672337308301</v>
+        <v>164.4826458534311</v>
       </c>
       <c r="S44" t="n">
-        <v>207.6380301578382</v>
+        <v>201.0413088276692</v>
       </c>
       <c r="T44" t="n">
-        <v>218.6471138007553</v>
+        <v>217.3798774815972</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0807524788462</v>
+        <v>250.0575933913458</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25956,22 +25958,22 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.2778492956328</v>
+        <v>148.1229592428521</v>
       </c>
       <c r="H45" t="n">
-        <v>121.2276521991739</v>
+        <v>119.7317403736337</v>
       </c>
       <c r="I45" t="n">
-        <v>97.8545955703796</v>
+        <v>92.5217582268325</v>
       </c>
       <c r="J45" t="n">
-        <v>90.08403272874064</v>
+        <v>75.45031945264532</v>
       </c>
       <c r="K45" t="n">
-        <v>57.65595408036968</v>
+        <v>32.64460726796537</v>
       </c>
       <c r="L45" t="n">
-        <v>20.44120180197424</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
         <v>0</v>
@@ -25980,25 +25982,25 @@
         <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>11.13860007154486</v>
+        <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>32.7642952373794</v>
+        <v>3.1870885796273</v>
       </c>
       <c r="Q45" t="n">
-        <v>83.41864916277152</v>
+        <v>63.64706979377851</v>
       </c>
       <c r="R45" t="n">
-        <v>135.2380782924301</v>
+        <v>125.6213081732896</v>
       </c>
       <c r="S45" t="n">
-        <v>182.9210185873741</v>
+        <v>180.0440037912057</v>
       </c>
       <c r="T45" t="n">
-        <v>213.0895726866503</v>
+        <v>212.4652570791701</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1973619193232</v>
+        <v>237.1871717842718</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26035,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.3094630644065</v>
+        <v>168.1796084472493</v>
       </c>
       <c r="H46" t="n">
-        <v>162.3452794567983</v>
+        <v>161.1907538606181</v>
       </c>
       <c r="I46" t="n">
-        <v>153.0851531410239</v>
+        <v>149.1800706541489</v>
       </c>
       <c r="J46" t="n">
-        <v>114.3701432638968</v>
+        <v>105.1894218308777</v>
       </c>
       <c r="K46" t="n">
-        <v>90.73661704058915</v>
+        <v>75.64987151995348</v>
       </c>
       <c r="L46" t="n">
-        <v>79.2580209984983</v>
+        <v>59.95218091677091</v>
       </c>
       <c r="M46" t="n">
-        <v>79.55121249250524</v>
+        <v>59.1959110048432</v>
       </c>
       <c r="N46" t="n">
-        <v>67.97665074265473</v>
+        <v>48.1053528280334</v>
       </c>
       <c r="O46" t="n">
-        <v>87.81973069401728</v>
+        <v>69.46537080709682</v>
       </c>
       <c r="P46" t="n">
-        <v>98.63546081891306</v>
+        <v>82.93013512200093</v>
       </c>
       <c r="Q46" t="n">
-        <v>136.7921905583566</v>
+        <v>125.9186371162145</v>
       </c>
       <c r="R46" t="n">
-        <v>185.8351568543492</v>
+        <v>179.9964210683504</v>
       </c>
       <c r="S46" t="n">
-        <v>228.6185458126902</v>
+        <v>226.3555339845949</v>
       </c>
       <c r="T46" t="n">
-        <v>222.0895895822268</v>
+        <v>221.5347562180094</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6352126851431</v>
+        <v>288.6281297060254</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26147,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="11">
@@ -26195,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="12">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>295309.4227308359</v>
+        <v>354747.3734370205</v>
       </c>
     </row>
   </sheetData>
@@ -26320,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874068</v>
       </c>
       <c r="F2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874068</v>
       </c>
       <c r="G2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874068</v>
       </c>
       <c r="H2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874068</v>
       </c>
       <c r="I2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874068</v>
       </c>
       <c r="J2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874068</v>
       </c>
       <c r="K2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874069</v>
       </c>
       <c r="L2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874069</v>
       </c>
       <c r="M2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874069</v>
       </c>
       <c r="N2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.77640874069</v>
       </c>
       <c r="O2" t="n">
-        <v>43570.24269799223</v>
+        <v>52339.77640874068</v>
       </c>
       <c r="P2" t="n">
-        <v>43570.24269799222</v>
+        <v>52339.7764087407</v>
       </c>
     </row>
     <row r="3">
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>255620.0170480048</v>
+        <v>313473.2982140792</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26476,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="F5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="G5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="H5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="I5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="J5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="K5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="L5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="M5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="N5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="O5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
       <c r="P5" t="n">
-        <v>6936.140855394496</v>
+        <v>8505.965127173942</v>
       </c>
     </row>
     <row r="6">
@@ -26528,40 +26530,40 @@
         <v>-33627.6</v>
       </c>
       <c r="E6" t="n">
-        <v>-218985.9152054071</v>
+        <v>-269639.4869325125</v>
       </c>
       <c r="F6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156674</v>
       </c>
       <c r="G6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156674</v>
       </c>
       <c r="H6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156674</v>
       </c>
       <c r="I6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156674</v>
       </c>
       <c r="J6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156674</v>
       </c>
       <c r="K6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156675</v>
       </c>
       <c r="L6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156675</v>
       </c>
       <c r="M6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156675</v>
       </c>
       <c r="N6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156675</v>
       </c>
       <c r="O6" t="n">
-        <v>36634.10184259774</v>
+        <v>43833.81128156674</v>
       </c>
       <c r="P6" t="n">
-        <v>36634.10184259773</v>
+        <v>43833.81128156676</v>
       </c>
     </row>
   </sheetData>
@@ -26744,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="F3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="G3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="H3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="I3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="J3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="K3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="L3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="M3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="N3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="O3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="P3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
     </row>
     <row r="4">
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>318.1715988713071</v>
+        <v>390.181886567612</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31750,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H11" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I11" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J11" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K11" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L11" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M11" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N11" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P11" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q11" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R11" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S11" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T11" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,22 +31831,22 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H12" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I12" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J12" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K12" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L12" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M12" t="n">
         <v>173.4035213848624</v>
@@ -31853,25 +31855,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O12" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q12" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R12" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S12" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T12" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U12" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31908,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H13" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I13" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J13" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K13" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L13" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M13" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N13" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O13" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P13" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q13" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R13" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S13" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T13" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H14" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I14" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J14" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K14" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L14" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M14" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N14" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P14" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q14" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R14" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S14" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T14" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,22 +32068,22 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H15" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I15" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J15" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K15" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L15" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M15" t="n">
         <v>173.4035213848624</v>
@@ -32090,25 +32092,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O15" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q15" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R15" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S15" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T15" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U15" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32145,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H16" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I16" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J16" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K16" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L16" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M16" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N16" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O16" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P16" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q16" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R16" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S16" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T16" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H17" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I17" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J17" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K17" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L17" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M17" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N17" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P17" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q17" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R17" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S17" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T17" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,22 +32305,22 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H18" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I18" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J18" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K18" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L18" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M18" t="n">
         <v>173.4035213848624</v>
@@ -32327,25 +32329,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O18" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q18" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R18" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S18" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T18" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U18" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32382,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H19" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I19" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J19" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K19" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L19" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M19" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N19" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O19" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P19" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q19" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R19" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S19" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T19" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H20" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I20" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J20" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K20" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L20" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M20" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N20" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P20" t="n">
-        <v>183.9335623404725</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q20" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R20" t="n">
-        <v>80.34712240241105</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S20" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T20" t="n">
-        <v>5.599180599232749</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32540,22 +32542,22 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.6843690994590379</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H21" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I21" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J21" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K21" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L21" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M21" t="n">
         <v>173.4035213848624</v>
@@ -32564,25 +32566,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O21" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q21" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R21" t="n">
-        <v>42.4909165436059</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S21" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T21" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U21" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32619,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.5737520635384226</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H22" t="n">
-        <v>5.101177437641615</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I22" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J22" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K22" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L22" t="n">
-        <v>85.3012840646124</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M22" t="n">
-        <v>89.9382439235729</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N22" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O22" t="n">
-        <v>81.09724621723089</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P22" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q22" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R22" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S22" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T22" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H23" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I23" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J23" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K23" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L23" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M23" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N23" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P23" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q23" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R23" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S23" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T23" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32777,22 +32779,22 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H24" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I24" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J24" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K24" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L24" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M24" t="n">
         <v>173.4035213848624</v>
@@ -32801,25 +32803,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O24" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q24" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R24" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S24" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T24" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U24" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32856,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H25" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I25" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J25" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K25" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L25" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M25" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N25" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O25" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P25" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q25" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R25" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S25" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T25" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H26" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I26" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J26" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K26" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L26" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M26" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N26" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P26" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q26" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R26" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S26" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T26" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33014,22 +33016,22 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H27" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I27" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J27" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K27" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L27" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M27" t="n">
         <v>173.4035213848624</v>
@@ -33038,25 +33040,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O27" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q27" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R27" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S27" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T27" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U27" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33093,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H28" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I28" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J28" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K28" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L28" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M28" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N28" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O28" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P28" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q28" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R28" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S28" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T28" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H29" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I29" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J29" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K29" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L29" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M29" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N29" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P29" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q29" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R29" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S29" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T29" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33251,22 +33253,22 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H30" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I30" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J30" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K30" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L30" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M30" t="n">
         <v>173.4035213848624</v>
@@ -33275,25 +33277,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O30" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q30" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R30" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S30" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T30" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U30" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33330,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H31" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I31" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J31" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K31" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L31" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M31" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N31" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O31" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P31" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q31" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R31" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S31" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T31" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H32" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I32" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J32" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K32" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L32" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M32" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N32" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P32" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q32" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R32" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S32" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T32" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33488,22 +33490,22 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H33" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I33" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J33" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K33" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L33" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M33" t="n">
         <v>173.4035213848624</v>
@@ -33512,25 +33514,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O33" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q33" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R33" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S33" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T33" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U33" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33567,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H34" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I34" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J34" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K34" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L34" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M34" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N34" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O34" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P34" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q34" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R34" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S34" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T34" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H35" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I35" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J35" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K35" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L35" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M35" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N35" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P35" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q35" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R35" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S35" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T35" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33725,22 +33727,22 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H36" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I36" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J36" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K36" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L36" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M36" t="n">
         <v>173.4035213848624</v>
@@ -33749,25 +33751,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O36" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q36" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R36" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S36" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T36" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U36" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33804,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H37" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I37" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J37" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K37" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L37" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M37" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N37" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O37" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P37" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q37" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R37" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S37" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T37" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H38" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I38" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J38" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K38" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L38" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M38" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N38" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P38" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q38" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R38" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S38" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T38" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33962,22 +33964,22 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H39" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I39" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J39" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K39" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L39" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M39" t="n">
         <v>173.4035213848624</v>
@@ -33986,25 +33988,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O39" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q39" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R39" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S39" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T39" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U39" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34041,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H40" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I40" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J40" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K40" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L40" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M40" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N40" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O40" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P40" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q40" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R40" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S40" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T40" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H41" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I41" t="n">
-        <v>49.31180126828571</v>
+        <v>60.47231027898639</v>
       </c>
       <c r="J41" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K41" t="n">
-        <v>162.7040020901549</v>
+        <v>199.5280367978889</v>
       </c>
       <c r="L41" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M41" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N41" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P41" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830384</v>
       </c>
       <c r="Q41" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R41" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S41" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T41" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34199,22 +34201,22 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397692</v>
       </c>
       <c r="H42" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I42" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J42" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K42" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L42" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M42" t="n">
         <v>173.4035213848624</v>
@@ -34223,25 +34225,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O42" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q42" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R42" t="n">
-        <v>42.49091654360591</v>
+        <v>52.10768666274639</v>
       </c>
       <c r="S42" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T42" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317314</v>
       </c>
       <c r="U42" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051115</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34278,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956937</v>
       </c>
       <c r="H43" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I43" t="n">
-        <v>17.25428932895548</v>
+        <v>21.1593718158305</v>
       </c>
       <c r="J43" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K43" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L43" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M43" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N43" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O43" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P43" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q43" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R43" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S43" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T43" t="n">
-        <v>2.451486089664169</v>
+        <v>3.006319453881599</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.279081804507766</v>
+        <v>1.568570398261756</v>
       </c>
       <c r="H44" t="n">
-        <v>13.09939653041517</v>
+        <v>16.06412159119821</v>
       </c>
       <c r="I44" t="n">
-        <v>49.31180126828571</v>
+        <v>60.4723102789864</v>
       </c>
       <c r="J44" t="n">
-        <v>108.5604693053411</v>
+        <v>133.1304518394688</v>
       </c>
       <c r="K44" t="n">
-        <v>162.7040020901549</v>
+        <v>199.528036797889</v>
       </c>
       <c r="L44" t="n">
-        <v>201.8487018648595</v>
+        <v>247.5321731236922</v>
       </c>
       <c r="M44" t="n">
-        <v>224.5955729057745</v>
+        <v>275.4272369437797</v>
       </c>
       <c r="N44" t="n">
-        <v>228.2297640828322</v>
+        <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>215.5108943892581</v>
+        <v>264.2864656901256</v>
       </c>
       <c r="P44" t="n">
-        <v>183.9335623404726</v>
+        <v>225.5623839830385</v>
       </c>
       <c r="Q44" t="n">
-        <v>138.1264452165381</v>
+        <v>169.3879565952893</v>
       </c>
       <c r="R44" t="n">
-        <v>80.34712240241106</v>
+        <v>98.5317102798101</v>
       </c>
       <c r="S44" t="n">
-        <v>29.14707662022075</v>
+        <v>35.74379795038979</v>
       </c>
       <c r="T44" t="n">
-        <v>5.59918059923275</v>
+        <v>6.866416918390839</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1023265443606213</v>
+        <v>0.1254856318609404</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,22 +34438,22 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.684369099459038</v>
+        <v>0.8392591522397693</v>
       </c>
       <c r="H45" t="n">
-        <v>6.609564723722816</v>
+        <v>8.105476549263036</v>
       </c>
       <c r="I45" t="n">
-        <v>23.56270802962039</v>
+        <v>28.8955453731675</v>
       </c>
       <c r="J45" t="n">
-        <v>64.65787180459272</v>
+        <v>79.29158508068804</v>
       </c>
       <c r="K45" t="n">
-        <v>110.5106014683483</v>
+        <v>135.5219482807526</v>
       </c>
       <c r="L45" t="n">
-        <v>148.5951415294723</v>
+        <v>169.0363433314465</v>
       </c>
       <c r="M45" t="n">
         <v>173.4035213848624</v>
@@ -34460,25 +34462,25 @@
         <v>160.2368887416667</v>
       </c>
       <c r="O45" t="n">
-        <v>162.8288181506773</v>
+        <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>130.6844818081035</v>
+        <v>160.2616884658556</v>
       </c>
       <c r="Q45" t="n">
-        <v>87.35911522217475</v>
+        <v>107.1306945911678</v>
       </c>
       <c r="R45" t="n">
-        <v>42.49091654360591</v>
+        <v>52.1076866627464</v>
       </c>
       <c r="S45" t="n">
-        <v>12.7118558605659</v>
+        <v>15.5888706567343</v>
       </c>
       <c r="T45" t="n">
-        <v>2.758487729837086</v>
+        <v>3.382803337317315</v>
       </c>
       <c r="U45" t="n">
-        <v>0.04502428285914726</v>
+        <v>0.05521441791051116</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.5737520635384227</v>
+        <v>0.7036066806956938</v>
       </c>
       <c r="H46" t="n">
-        <v>5.101177437641616</v>
+        <v>6.255703033821718</v>
       </c>
       <c r="I46" t="n">
-        <v>17.25428932895548</v>
+        <v>21.15937181583051</v>
       </c>
       <c r="J46" t="n">
-        <v>40.56427089216648</v>
+        <v>49.74499232518554</v>
       </c>
       <c r="K46" t="n">
-        <v>66.65955792746399</v>
+        <v>81.74630344809967</v>
       </c>
       <c r="L46" t="n">
-        <v>85.30128406461242</v>
+        <v>104.6071241463398</v>
       </c>
       <c r="M46" t="n">
-        <v>89.93824392357291</v>
+        <v>110.293545411235</v>
       </c>
       <c r="N46" t="n">
-        <v>87.79971350492977</v>
+        <v>107.6710114195511</v>
       </c>
       <c r="O46" t="n">
-        <v>81.0972462172309</v>
+        <v>99.45160610415137</v>
       </c>
       <c r="P46" t="n">
-        <v>69.39270412104702</v>
+        <v>85.09802981795914</v>
       </c>
       <c r="Q46" t="n">
-        <v>48.04391142956737</v>
+        <v>58.91746487170941</v>
       </c>
       <c r="R46" t="n">
-        <v>25.79797914782761</v>
+        <v>31.63671493382637</v>
       </c>
       <c r="S46" t="n">
-        <v>9.998933689119598</v>
+        <v>12.26194551721495</v>
       </c>
       <c r="T46" t="n">
-        <v>2.451486089664169</v>
+        <v>3.0063194538816</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03129556710209581</v>
+        <v>0.03837854621976516</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>

--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_9.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/25/Output_19_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-48343.97640186438</v>
+        <v>-200990.3826904164</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>26160808.72769628</v>
+        <v>26052434.08922436</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3078152.982664103</v>
+        <v>3125955.114170984</v>
       </c>
     </row>
     <row r="11">
@@ -23272,49 +23272,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G11" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H11" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I11" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J11" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K11" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L11" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M11" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P11" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q11" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R11" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S11" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T11" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U11" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V11" t="n">
         <v>320.879783609152</v>
@@ -23351,19 +23351,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G12" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H12" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I12" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J12" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K12" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L12" t="n">
         <v>0</v>
@@ -23378,22 +23378,22 @@
         <v>0</v>
       </c>
       <c r="P12" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R12" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S12" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T12" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U12" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V12" t="n">
         <v>240.6489209154022</v>
@@ -23430,49 +23430,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G13" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H13" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I13" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J13" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K13" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L13" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M13" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N13" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O13" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P13" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q13" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R13" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S13" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T13" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U13" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V13" t="n">
         <v>245.1090151844499</v>
@@ -23509,49 +23509,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G14" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H14" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I14" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J14" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K14" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L14" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M14" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P14" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q14" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R14" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S14" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T14" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U14" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V14" t="n">
         <v>320.879783609152</v>
@@ -23588,19 +23588,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G15" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H15" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I15" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J15" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K15" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
@@ -23615,22 +23615,22 @@
         <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R15" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S15" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T15" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U15" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V15" t="n">
         <v>240.6489209154022</v>
@@ -23667,49 +23667,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G16" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H16" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I16" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J16" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K16" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L16" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M16" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N16" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O16" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P16" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q16" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R16" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S16" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T16" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U16" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V16" t="n">
         <v>245.1090151844499</v>
@@ -23746,49 +23746,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G17" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H17" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I17" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J17" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K17" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L17" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M17" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
       </c>
       <c r="O17" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P17" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q17" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R17" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S17" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T17" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U17" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V17" t="n">
         <v>320.879783609152</v>
@@ -23825,19 +23825,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G18" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H18" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I18" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J18" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K18" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -23852,22 +23852,22 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R18" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S18" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T18" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U18" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V18" t="n">
         <v>240.6489209154022</v>
@@ -23904,49 +23904,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G19" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H19" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I19" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J19" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K19" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L19" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M19" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N19" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O19" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P19" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R19" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S19" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T19" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U19" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V19" t="n">
         <v>245.1090151844499</v>
@@ -23983,49 +23983,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G20" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H20" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I20" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J20" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K20" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L20" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M20" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N20" t="n">
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P20" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q20" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R20" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S20" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T20" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U20" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V20" t="n">
         <v>320.879783609152</v>
@@ -24062,19 +24062,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G21" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H21" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I21" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J21" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K21" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
@@ -24089,22 +24089,22 @@
         <v>0</v>
       </c>
       <c r="P21" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R21" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S21" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T21" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U21" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V21" t="n">
         <v>240.6489209154022</v>
@@ -24141,49 +24141,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G22" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H22" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I22" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J22" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K22" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L22" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M22" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N22" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O22" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P22" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q22" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R22" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S22" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T22" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U22" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V22" t="n">
         <v>245.1090151844499</v>
@@ -24220,49 +24220,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G23" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H23" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I23" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J23" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K23" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L23" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M23" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P23" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q23" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R23" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S23" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T23" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U23" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V23" t="n">
         <v>320.879783609152</v>
@@ -24299,19 +24299,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G24" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H24" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I24" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J24" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K24" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L24" t="n">
         <v>0</v>
@@ -24326,22 +24326,22 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R24" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S24" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T24" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U24" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V24" t="n">
         <v>240.6489209154022</v>
@@ -24378,49 +24378,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G25" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H25" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I25" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J25" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K25" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L25" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M25" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N25" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O25" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P25" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q25" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R25" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S25" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T25" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U25" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V25" t="n">
         <v>245.1090151844499</v>
@@ -24457,49 +24457,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G26" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H26" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I26" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J26" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K26" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L26" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M26" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N26" t="n">
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P26" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q26" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R26" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S26" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T26" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U26" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V26" t="n">
         <v>320.879783609152</v>
@@ -24536,19 +24536,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G27" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H27" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I27" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J27" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K27" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -24563,22 +24563,22 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R27" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S27" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T27" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U27" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V27" t="n">
         <v>240.6489209154022</v>
@@ -24615,49 +24615,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G28" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H28" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I28" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J28" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K28" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L28" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M28" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N28" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O28" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P28" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q28" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R28" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S28" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T28" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U28" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V28" t="n">
         <v>245.1090151844499</v>
@@ -24694,49 +24694,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G29" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H29" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I29" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J29" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K29" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L29" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M29" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N29" t="n">
         <v>0</v>
       </c>
       <c r="O29" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P29" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q29" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R29" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S29" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T29" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U29" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V29" t="n">
         <v>320.879783609152</v>
@@ -24773,19 +24773,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G30" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H30" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I30" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J30" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K30" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L30" t="n">
         <v>0</v>
@@ -24800,22 +24800,22 @@
         <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R30" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S30" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T30" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U30" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V30" t="n">
         <v>240.6489209154022</v>
@@ -24852,49 +24852,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G31" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H31" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I31" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J31" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K31" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L31" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M31" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N31" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O31" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P31" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R31" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S31" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T31" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U31" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V31" t="n">
         <v>245.1090151844499</v>
@@ -24931,49 +24931,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G32" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H32" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I32" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J32" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K32" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L32" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M32" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P32" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q32" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R32" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S32" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T32" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U32" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V32" t="n">
         <v>320.879783609152</v>
@@ -25010,19 +25010,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G33" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H33" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I33" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J33" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K33" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -25037,22 +25037,22 @@
         <v>0</v>
       </c>
       <c r="P33" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R33" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S33" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T33" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U33" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V33" t="n">
         <v>240.6489209154022</v>
@@ -25089,49 +25089,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G34" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H34" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I34" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J34" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K34" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L34" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M34" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N34" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O34" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P34" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R34" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S34" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T34" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U34" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V34" t="n">
         <v>245.1090151844499</v>
@@ -25168,49 +25168,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G35" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H35" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I35" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J35" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K35" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L35" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M35" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P35" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q35" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R35" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S35" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T35" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U35" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V35" t="n">
         <v>320.879783609152</v>
@@ -25247,19 +25247,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G36" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H36" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I36" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J36" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K36" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L36" t="n">
         <v>0</v>
@@ -25274,22 +25274,22 @@
         <v>0</v>
       </c>
       <c r="P36" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R36" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S36" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T36" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U36" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V36" t="n">
         <v>240.6489209154022</v>
@@ -25326,49 +25326,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G37" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H37" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I37" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J37" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K37" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L37" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M37" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N37" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O37" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P37" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R37" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S37" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T37" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U37" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V37" t="n">
         <v>245.1090151844499</v>
@@ -25405,49 +25405,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G38" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H38" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I38" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J38" t="n">
-        <v>87.74555168308848</v>
+        <v>85.09801597620873</v>
       </c>
       <c r="K38" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L38" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793884</v>
       </c>
       <c r="M38" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P38" t="n">
-        <v>56.54187083839039</v>
+        <v>52.05616184039113</v>
       </c>
       <c r="Q38" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R38" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S38" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T38" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U38" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V38" t="n">
         <v>320.879783609152</v>
@@ -25484,19 +25484,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G39" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H39" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I39" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816343</v>
       </c>
       <c r="J39" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K39" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287884</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -25511,22 +25511,22 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R39" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S39" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T39" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U39" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V39" t="n">
         <v>240.6489209154022</v>
@@ -25563,49 +25563,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G40" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H40" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I40" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J40" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K40" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L40" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M40" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N40" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430749</v>
       </c>
       <c r="O40" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P40" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q40" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R40" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S40" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T40" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U40" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V40" t="n">
         <v>245.1090151844499</v>
@@ -25642,49 +25642,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G41" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H41" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I41" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J41" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K41" t="n">
-        <v>68.98158147698734</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L41" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M41" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>16.43335224433224</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P41" t="n">
-        <v>56.54187083839042</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q41" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R41" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S41" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T41" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U41" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V41" t="n">
         <v>320.879783609152</v>
@@ -25721,19 +25721,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G42" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H42" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I42" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J42" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K42" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L42" t="n">
         <v>0</v>
@@ -25748,22 +25748,22 @@
         <v>0</v>
       </c>
       <c r="P42" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R42" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S42" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T42" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U42" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V42" t="n">
         <v>240.6489209154022</v>
@@ -25800,49 +25800,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G43" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H43" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I43" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J43" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K43" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L43" t="n">
-        <v>59.95218091677093</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M43" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N43" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O43" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P43" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q43" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R43" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S43" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T43" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U43" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V43" t="n">
         <v>245.1090151844499</v>
@@ -25879,49 +25879,49 @@
         <v>403.1992496400135</v>
       </c>
       <c r="G44" t="n">
-        <v>417.6763216963499</v>
+        <v>417.6451278854616</v>
       </c>
       <c r="H44" t="n">
-        <v>335.1225893275702</v>
+        <v>334.8031257118105</v>
       </c>
       <c r="I44" t="n">
-        <v>196.2174982714999</v>
+        <v>195.0148988772292</v>
       </c>
       <c r="J44" t="n">
-        <v>87.74555168308848</v>
+        <v>85.0980159762087</v>
       </c>
       <c r="K44" t="n">
-        <v>68.98158147698732</v>
+        <v>65.01361175520637</v>
       </c>
       <c r="L44" t="n">
-        <v>40.1028531396922</v>
+        <v>35.18023582793882</v>
       </c>
       <c r="M44" t="n">
-        <v>5.595167593493045</v>
+        <v>0.1178073473550967</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>16.43335224433218</v>
+        <v>11.17754604002829</v>
       </c>
       <c r="P44" t="n">
-        <v>56.54187083839039</v>
+        <v>52.0561618403911</v>
       </c>
       <c r="Q44" t="n">
-        <v>101.8249850515391</v>
+        <v>98.45640440597657</v>
       </c>
       <c r="R44" t="n">
-        <v>164.4826458534311</v>
+        <v>162.5231676302197</v>
       </c>
       <c r="S44" t="n">
-        <v>201.0413088276692</v>
+        <v>200.3304798620524</v>
       </c>
       <c r="T44" t="n">
-        <v>217.3798774815972</v>
+        <v>217.2433265744337</v>
       </c>
       <c r="U44" t="n">
-        <v>250.0575933913458</v>
+        <v>250.0550978864748</v>
       </c>
       <c r="V44" t="n">
         <v>320.879783609152</v>
@@ -25958,19 +25958,19 @@
         <v>158.8234391199283</v>
       </c>
       <c r="G45" t="n">
-        <v>148.1229592428521</v>
+        <v>148.1062690826207</v>
       </c>
       <c r="H45" t="n">
-        <v>119.7317403736337</v>
+        <v>119.5705485629778</v>
       </c>
       <c r="I45" t="n">
-        <v>92.5217582268325</v>
+        <v>91.94711893816341</v>
       </c>
       <c r="J45" t="n">
-        <v>75.45031945264532</v>
+        <v>73.87346532306307</v>
       </c>
       <c r="K45" t="n">
-        <v>32.64460726796537</v>
+        <v>29.94951240287881</v>
       </c>
       <c r="L45" t="n">
         <v>0</v>
@@ -25985,22 +25985,22 @@
         <v>0</v>
       </c>
       <c r="P45" t="n">
-        <v>3.1870885796273</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>63.64706979377851</v>
+        <v>61.51658548073077</v>
       </c>
       <c r="R45" t="n">
-        <v>125.6213081732896</v>
+        <v>124.5850541897993</v>
       </c>
       <c r="S45" t="n">
-        <v>180.0440037912057</v>
+        <v>179.733991385153</v>
       </c>
       <c r="T45" t="n">
-        <v>212.4652570791701</v>
+        <v>212.3979840210444</v>
       </c>
       <c r="U45" t="n">
-        <v>237.1871717842718</v>
+        <v>237.1860737474145</v>
       </c>
       <c r="V45" t="n">
         <v>240.6489209154022</v>
@@ -26037,49 +26037,49 @@
         <v>138.9268822184467</v>
       </c>
       <c r="G46" t="n">
-        <v>168.1796084472493</v>
+        <v>168.1656159775701</v>
       </c>
       <c r="H46" t="n">
-        <v>161.1907538606181</v>
+        <v>161.0663480847431</v>
       </c>
       <c r="I46" t="n">
-        <v>149.1800706541489</v>
+        <v>148.7592789296147</v>
       </c>
       <c r="J46" t="n">
-        <v>105.1894218308777</v>
+        <v>104.2001542245588</v>
       </c>
       <c r="K46" t="n">
-        <v>75.64987151995348</v>
+        <v>74.02420095177089</v>
       </c>
       <c r="L46" t="n">
-        <v>59.95218091677091</v>
+        <v>57.87188228828438</v>
       </c>
       <c r="M46" t="n">
-        <v>59.1959110048432</v>
+        <v>57.00252778049483</v>
       </c>
       <c r="N46" t="n">
-        <v>48.1053528280334</v>
+        <v>45.96412335430747</v>
       </c>
       <c r="O46" t="n">
-        <v>69.46537080709682</v>
+        <v>67.48759882007782</v>
       </c>
       <c r="P46" t="n">
-        <v>82.93013512200093</v>
+        <v>81.23780951643748</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.9186371162145</v>
+        <v>124.7469585869868</v>
       </c>
       <c r="R46" t="n">
-        <v>179.9964210683504</v>
+        <v>179.367268749866</v>
       </c>
       <c r="S46" t="n">
-        <v>226.3555339845949</v>
+        <v>226.1116833993675</v>
       </c>
       <c r="T46" t="n">
-        <v>221.5347562180094</v>
+        <v>221.4749702111983</v>
       </c>
       <c r="U46" t="n">
-        <v>288.6281297060254</v>
+        <v>288.6273664804066</v>
       </c>
       <c r="V46" t="n">
         <v>245.1090151844499</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>354747.3734370205</v>
+        <v>360256.4175593437</v>
       </c>
     </row>
   </sheetData>
@@ -26322,40 +26322,40 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>52339.77640874068</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="F2" t="n">
-        <v>52339.77640874068</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="G2" t="n">
-        <v>52339.77640874068</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="H2" t="n">
-        <v>52339.77640874068</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="I2" t="n">
-        <v>52339.77640874068</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="J2" t="n">
-        <v>52339.77640874068</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="K2" t="n">
-        <v>52339.77640874069</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="L2" t="n">
-        <v>52339.77640874069</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="M2" t="n">
-        <v>52339.77640874069</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="N2" t="n">
-        <v>52339.77640874069</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="O2" t="n">
-        <v>52339.77640874068</v>
+        <v>53152.58619728019</v>
       </c>
       <c r="P2" t="n">
-        <v>52339.7764087407</v>
+        <v>53152.58619728019</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>313473.2982140792</v>
+        <v>319707.2720247885</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26478,40 +26478,40 @@
         <v>33627.6</v>
       </c>
       <c r="E5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="F5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="G5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="H5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="I5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="J5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="K5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="L5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="M5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="N5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="O5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
       <c r="P5" t="n">
-        <v>8505.965127173942</v>
+        <v>8675.121365168401</v>
       </c>
     </row>
     <row r="6">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="C6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="D6" t="n">
-        <v>-33627.6</v>
+        <v>-55720.56372146339</v>
       </c>
       <c r="E6" t="n">
-        <v>-269639.4869325125</v>
+        <v>-291416.9280033312</v>
       </c>
       <c r="F6" t="n">
-        <v>43833.81128156674</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="G6" t="n">
-        <v>43833.81128156674</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="H6" t="n">
-        <v>43833.81128156674</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="I6" t="n">
-        <v>43833.81128156674</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="J6" t="n">
-        <v>43833.81128156674</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="K6" t="n">
-        <v>43833.81128156675</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="L6" t="n">
-        <v>43833.81128156675</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="M6" t="n">
-        <v>43833.81128156675</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="N6" t="n">
-        <v>43833.81128156675</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="O6" t="n">
-        <v>43833.81128156674</v>
+        <v>28290.3440214573</v>
       </c>
       <c r="P6" t="n">
-        <v>43833.81128156676</v>
+        <v>28290.3440214573</v>
       </c>
     </row>
   </sheetData>
@@ -26746,40 +26746,40 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="F3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="G3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="H3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="I3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="J3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="K3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="L3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="M3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="N3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="O3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="P3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
     </row>
     <row r="4">
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>390.181886567612</v>
+        <v>397.9413470260735</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H11" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I11" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J11" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K11" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L11" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M11" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N11" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O11" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P11" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q11" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R11" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S11" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T11" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U11" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,19 +31831,19 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H12" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I12" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J12" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K12" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L12" t="n">
         <v>169.0363433314465</v>
@@ -31858,22 +31858,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P12" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q12" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R12" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S12" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T12" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U12" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H13" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I13" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J13" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K13" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L13" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M13" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N13" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O13" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P13" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q13" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R13" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S13" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T13" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U13" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H14" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I14" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J14" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K14" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L14" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M14" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N14" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O14" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P14" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q14" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R14" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S14" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T14" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U14" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,19 +32068,19 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H15" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I15" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J15" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K15" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L15" t="n">
         <v>169.0363433314465</v>
@@ -32095,22 +32095,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P15" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q15" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R15" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S15" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T15" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U15" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H16" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I16" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J16" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K16" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L16" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M16" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N16" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O16" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P16" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q16" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R16" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S16" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T16" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U16" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H17" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I17" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J17" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K17" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L17" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M17" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N17" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O17" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P17" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q17" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R17" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S17" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T17" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U17" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,19 +32305,19 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H18" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I18" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J18" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K18" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L18" t="n">
         <v>169.0363433314465</v>
@@ -32332,22 +32332,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P18" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q18" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R18" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S18" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T18" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U18" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H19" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I19" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J19" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K19" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L19" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M19" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N19" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O19" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P19" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q19" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R19" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S19" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T19" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U19" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H20" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I20" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J20" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K20" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L20" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M20" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N20" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O20" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P20" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q20" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R20" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S20" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T20" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U20" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,19 +32542,19 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H21" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I21" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J21" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K21" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L21" t="n">
         <v>169.0363433314465</v>
@@ -32569,22 +32569,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P21" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q21" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R21" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S21" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T21" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U21" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H22" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I22" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J22" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K22" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L22" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M22" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N22" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O22" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P22" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q22" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R22" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S22" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T22" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U22" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H23" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I23" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J23" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K23" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L23" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M23" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N23" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O23" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P23" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q23" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R23" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S23" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T23" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U23" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,19 +32779,19 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H24" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I24" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J24" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K24" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L24" t="n">
         <v>169.0363433314465</v>
@@ -32806,22 +32806,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P24" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q24" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R24" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S24" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T24" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U24" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H25" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I25" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J25" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K25" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L25" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M25" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N25" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O25" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P25" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q25" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R25" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S25" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T25" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U25" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,49 +32937,49 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H26" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I26" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J26" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K26" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L26" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M26" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N26" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O26" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P26" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q26" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R26" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S26" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T26" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U26" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
@@ -33016,19 +33016,19 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H27" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I27" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J27" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K27" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L27" t="n">
         <v>169.0363433314465</v>
@@ -33043,22 +33043,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P27" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q27" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R27" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S27" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T27" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U27" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33095,49 +33095,49 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H28" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I28" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J28" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K28" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L28" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M28" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N28" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O28" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P28" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q28" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R28" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S28" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T28" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U28" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,49 +33174,49 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H29" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I29" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J29" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K29" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L29" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M29" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N29" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O29" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P29" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q29" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R29" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S29" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T29" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U29" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V29" t="n">
         <v>0</v>
@@ -33253,19 +33253,19 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H30" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I30" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J30" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K30" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L30" t="n">
         <v>169.0363433314465</v>
@@ -33280,22 +33280,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P30" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q30" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R30" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S30" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T30" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U30" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33332,49 +33332,49 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H31" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I31" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J31" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K31" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L31" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M31" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N31" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O31" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P31" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q31" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R31" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S31" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T31" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U31" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,49 +33411,49 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H32" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I32" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J32" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K32" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L32" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M32" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N32" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O32" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P32" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q32" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R32" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S32" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T32" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U32" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -33490,19 +33490,19 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H33" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I33" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J33" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K33" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L33" t="n">
         <v>169.0363433314465</v>
@@ -33517,22 +33517,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P33" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q33" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R33" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S33" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T33" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U33" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33569,49 +33569,49 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H34" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I34" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J34" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K34" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L34" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M34" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N34" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O34" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P34" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q34" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R34" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S34" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T34" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U34" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,49 +33648,49 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H35" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I35" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J35" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K35" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L35" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M35" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N35" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O35" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P35" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q35" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R35" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S35" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T35" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U35" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V35" t="n">
         <v>0</v>
@@ -33727,19 +33727,19 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H36" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I36" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J36" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K36" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L36" t="n">
         <v>169.0363433314465</v>
@@ -33754,22 +33754,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P36" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q36" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R36" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S36" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T36" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U36" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33806,49 +33806,49 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H37" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I37" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J37" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K37" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L37" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M37" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N37" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O37" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P37" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q37" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R37" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S37" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T37" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U37" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,49 +33885,49 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H38" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I38" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J38" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K38" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L38" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M38" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N38" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O38" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P38" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810377</v>
       </c>
       <c r="Q38" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R38" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S38" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600663</v>
       </c>
       <c r="T38" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U38" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V38" t="n">
         <v>0</v>
@@ -33964,19 +33964,19 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711768</v>
       </c>
       <c r="H39" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I39" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183657</v>
       </c>
       <c r="J39" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K39" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L39" t="n">
         <v>169.0363433314465</v>
@@ -33991,22 +33991,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P39" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q39" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R39" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623677</v>
       </c>
       <c r="S39" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T39" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443031</v>
       </c>
       <c r="U39" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34043,49 +34043,49 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748864</v>
       </c>
       <c r="H40" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I40" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J40" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150447</v>
       </c>
       <c r="K40" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L40" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M40" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N40" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O40" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P40" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q40" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R40" t="n">
-        <v>31.63671493382637</v>
+        <v>32.26586725231079</v>
       </c>
       <c r="S40" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T40" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U40" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,49 +34122,49 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H41" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I41" t="n">
-        <v>60.47231027898639</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J41" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K41" t="n">
-        <v>199.5280367978889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L41" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M41" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N41" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O41" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P41" t="n">
-        <v>225.5623839830384</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q41" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R41" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S41" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T41" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U41" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
@@ -34201,19 +34201,19 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>0.8392591522397692</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H42" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I42" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J42" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K42" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L42" t="n">
         <v>169.0363433314465</v>
@@ -34228,22 +34228,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P42" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q42" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R42" t="n">
-        <v>52.10768666274639</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S42" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T42" t="n">
-        <v>3.382803337317314</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U42" t="n">
-        <v>0.05521441791051115</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34280,49 +34280,49 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0.7036066806956937</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H43" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I43" t="n">
-        <v>21.1593718158305</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J43" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K43" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L43" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M43" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N43" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O43" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P43" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q43" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R43" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S43" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T43" t="n">
-        <v>3.006319453881599</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U43" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,49 +34359,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>1.568570398261756</v>
+        <v>1.599764209150043</v>
       </c>
       <c r="H44" t="n">
-        <v>16.06412159119821</v>
+        <v>16.38358520695788</v>
       </c>
       <c r="I44" t="n">
-        <v>60.4723102789864</v>
+        <v>61.67490967325708</v>
       </c>
       <c r="J44" t="n">
-        <v>133.1304518394688</v>
+        <v>135.7779875463486</v>
       </c>
       <c r="K44" t="n">
-        <v>199.528036797889</v>
+        <v>203.4960065196699</v>
       </c>
       <c r="L44" t="n">
-        <v>247.5321731236922</v>
+        <v>252.4547904354456</v>
       </c>
       <c r="M44" t="n">
-        <v>275.4272369437797</v>
+        <v>280.9045971899176</v>
       </c>
       <c r="N44" t="n">
         <v>279.8839375878409</v>
       </c>
       <c r="O44" t="n">
-        <v>264.2864656901256</v>
+        <v>269.5422718944295</v>
       </c>
       <c r="P44" t="n">
-        <v>225.5623839830385</v>
+        <v>230.0480929810378</v>
       </c>
       <c r="Q44" t="n">
-        <v>169.3879565952893</v>
+        <v>172.7565372408518</v>
       </c>
       <c r="R44" t="n">
-        <v>98.5317102798101</v>
+        <v>100.4911885030215</v>
       </c>
       <c r="S44" t="n">
-        <v>35.74379795038979</v>
+        <v>36.45462691600664</v>
       </c>
       <c r="T44" t="n">
-        <v>6.866416918390839</v>
+        <v>7.002967825554316</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1254856318609404</v>
+        <v>0.1279811367320034</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34438,19 +34438,19 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>0.8392591522397693</v>
+        <v>0.8559493124711769</v>
       </c>
       <c r="H45" t="n">
-        <v>8.105476549263036</v>
+        <v>8.266668359918999</v>
       </c>
       <c r="I45" t="n">
-        <v>28.8955453731675</v>
+        <v>29.47018466183658</v>
       </c>
       <c r="J45" t="n">
-        <v>79.29158508068804</v>
+        <v>80.86843921027028</v>
       </c>
       <c r="K45" t="n">
-        <v>135.5219482807526</v>
+        <v>138.2170431458391</v>
       </c>
       <c r="L45" t="n">
         <v>169.0363433314465</v>
@@ -34465,22 +34465,22 @@
         <v>173.9674182222222</v>
       </c>
       <c r="P45" t="n">
-        <v>160.2616884658556</v>
+        <v>163.4487770454829</v>
       </c>
       <c r="Q45" t="n">
-        <v>107.1306945911678</v>
+        <v>109.2611789042155</v>
       </c>
       <c r="R45" t="n">
-        <v>52.1076866627464</v>
+        <v>53.14394064623678</v>
       </c>
       <c r="S45" t="n">
-        <v>15.5888706567343</v>
+        <v>15.89888306278698</v>
       </c>
       <c r="T45" t="n">
-        <v>3.382803337317315</v>
+        <v>3.450076395443032</v>
       </c>
       <c r="U45" t="n">
-        <v>0.05521441791051116</v>
+        <v>0.05631245476784061</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34517,49 +34517,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0.7036066806956938</v>
+        <v>0.7175991503748865</v>
       </c>
       <c r="H46" t="n">
-        <v>6.255703033821718</v>
+        <v>6.380108809696723</v>
       </c>
       <c r="I46" t="n">
-        <v>21.15937181583051</v>
+        <v>21.58016354036478</v>
       </c>
       <c r="J46" t="n">
-        <v>49.74499232518554</v>
+        <v>50.73425993150448</v>
       </c>
       <c r="K46" t="n">
-        <v>81.74630344809967</v>
+        <v>83.37197401628225</v>
       </c>
       <c r="L46" t="n">
-        <v>104.6071241463398</v>
+        <v>106.6874227748263</v>
       </c>
       <c r="M46" t="n">
-        <v>110.293545411235</v>
+        <v>112.4869286355833</v>
       </c>
       <c r="N46" t="n">
-        <v>107.6710114195511</v>
+        <v>109.812240893277</v>
       </c>
       <c r="O46" t="n">
-        <v>99.45160610415137</v>
+        <v>101.4293780911704</v>
       </c>
       <c r="P46" t="n">
-        <v>85.09802981795914</v>
+        <v>86.7903554235226</v>
       </c>
       <c r="Q46" t="n">
-        <v>58.91746487170941</v>
+        <v>60.08914340093709</v>
       </c>
       <c r="R46" t="n">
-        <v>31.63671493382637</v>
+        <v>32.2658672523108</v>
       </c>
       <c r="S46" t="n">
-        <v>12.26194551721495</v>
+        <v>12.50579610244234</v>
       </c>
       <c r="T46" t="n">
-        <v>3.0063194538816</v>
+        <v>3.066105460692696</v>
       </c>
       <c r="U46" t="n">
-        <v>0.03837854621976516</v>
+        <v>0.03914177183863022</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
